--- a/Grafiken_Pool/Datenreihen/Simu/DeliveryRatio_10-400.xlsx
+++ b/Grafiken_Pool/Datenreihen/Simu/DeliveryRatio_10-400.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="10-400_OPT_recCnt-1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/Jens/Dropbox/UNI Jens/Masterarbeit/Thesis/Grafiken_Pool/Datenreihen/Simu/10-400_OPT_recCnt-1.csv" decimal="," thousands="." tab="0" comma="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="/Users/Jens/Dropbox/UNI Jens/Masterarbeit/Thesis/Grafiken_Pool/Datenreihen/Simu/10-400_OPT_recCnt-1.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="81">
         <textField/>
         <textField/>
@@ -120,7 +120,7 @@
     </textPr>
   </connection>
   <connection id="2" name="10-400_STD_recCnt-1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="/Users/Jens/Dropbox/UNI Jens/Masterarbeit/Thesis/Grafiken_Pool/Datenreihen/Simu/10-400_STD_recCnt-1.csv" decimal="," thousands="." tab="0" comma="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="/Users/Jens/Dropbox/UNI Jens/Masterarbeit/Thesis/Grafiken_Pool/Datenreihen/Simu/10-400_STD_recCnt-1.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="41">
         <textField/>
         <textField/>
@@ -253,9 +253,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -533,10 +531,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -814,11 +809,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1313941744"/>
-        <c:axId val="1313946752"/>
+        <c:axId val="-1981463216"/>
+        <c:axId val="-2059953936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1313941744"/>
+        <c:axId val="-1981463216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,6 +833,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800"/>
+                  <a:t>Anzahl der gleichzeitg antwortenden</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800" baseline="0"/>
+                  <a:t> Frachtcontainer</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -860,7 +916,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -875,16 +931,16 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313946752"/>
+        <c:crossAx val="-2059953936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
+        <c:lblOffset val="1"/>
+        <c:tickLblSkip val="3"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1313946752"/>
+        <c:axId val="-2059953936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -905,6 +961,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800"/>
+                  <a:t>Productt</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800" baseline="0"/>
+                  <a:t> Specific Delivery Ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0112888888888889"/>
+              <c:y val="0.146437103174603"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -921,7 +1045,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -936,7 +1060,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313941744"/>
+        <c:crossAx val="-1981463216"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -954,9 +1078,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.862902489669209"/>
-          <c:y val="0.289071501931824"/>
-          <c:w val="0.0744343249522008"/>
+          <c:x val="0.807869111111111"/>
+          <c:y val="0.059765873015873"/>
+          <c:w val="0.154867666666667"/>
           <c:h val="0.154776250794738"/>
         </c:manualLayout>
       </c:layout>
@@ -973,7 +1097,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -998,12 +1122,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1589,10 +1708,10 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>287800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>74300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1887,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AY14" sqref="AY14"/>
+    <sheetView tabSelected="1" topLeftCell="O9" workbookViewId="0">
+      <selection activeCell="AM23" sqref="AM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
